--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM002-067 - Klaim - Laporan - Laporan Rekap Harian Pindah Buku (PINBUK) Ke Rekening BNI berdasarkan NPP Penghitung.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM002-067 - Klaim - Laporan - Laporan Rekap Harian Pindah Buku (PINBUK) Ke Rekening BNI berdasarkan NPP Penghitung.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229423D6-C83B-458D-9AF9-0F440E4B6901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AABD8C1-63AB-45D7-8C34-EAA99D1D2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DPLKKLM001" sheetId="2" r:id="rId1"/>
+    <sheet name="DPLKKLM002" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -64,82 +64,70 @@
     <t>Setup</t>
   </si>
   <si>
-    <t>Tambah Data Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Ubah Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>View Detil Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Hapus Data Dapat dilakukan dengan baik</t>
-  </si>
-  <si>
-    <t>Normal - Klaim - Setup</t>
-  </si>
-  <si>
     <t>Klaim</t>
   </si>
   <si>
-    <t>Setup Laporan</t>
-  </si>
-  <si>
-    <t>DPLKKLM001-010</t>
-  </si>
-  <si>
-    <t>Tambah Setup Laporan</t>
-  </si>
-  <si>
-    <t>Ubah Setup Laporan</t>
-  </si>
-  <si>
-    <t>View Setup Laporan</t>
-  </si>
-  <si>
-    <t>Hapus Setup Laporan</t>
-  </si>
-  <si>
-    <t>KODE_LAPORAN</t>
-  </si>
-  <si>
-    <t>NAMA_LAPORAN</t>
-  </si>
-  <si>
-    <t>JENIS_LAPORAN</t>
-  </si>
-  <si>
-    <t>QAS12</t>
-  </si>
-  <si>
-    <t>TESTING111</t>
-  </si>
-  <si>
-    <t>LKL Laporan Kliring</t>
-  </si>
-  <si>
-    <t>TESTING222</t>
-  </si>
-  <si>
     <t>PREPERATION</t>
+  </si>
+  <si>
+    <t>DPLKKLM002-067</t>
+  </si>
+  <si>
+    <t>Normal - Klaim - Laporan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laporan Rekap Harian Pindah Buku (PINBUK) Ke Rekening BNI berdasarkan NPP Penghitung Laporan Pindah Buku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username : Putri,
+Password : bni1234/,
+User : - ,
+Jenis Klaim : 1: Pensiun Normal ,
+Nama Peserta : -,
+No Rek DPLK : - ,
+Format Laporan : Excel </t>
+  </si>
+  <si>
+    <t>Laporan Pindah Buku</t>
+  </si>
+  <si>
+    <t>1: Pensiun Normal</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>JENIS_KLAIM</t>
+  </si>
+  <si>
+    <t>NAMA_PESERTA</t>
+  </si>
+  <si>
+    <t>PESERTA 8248</t>
+  </si>
+  <si>
+    <t>NO_REK_DPLK</t>
+  </si>
+  <si>
+    <t>FORMAT_LAPORAN</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>PDF</t>
   </si>
   <si>
     <t>Username : Putri,
 Password : bni1234/,
-Kode Laporan : QAS12,
-Nama Laporan : TESTING111,
-Jenis Laporan : LKL Laporan Kliring</t>
-  </si>
-  <si>
-    <t>Username : Putri,
-Password : bni1234/,
-Kode Laporan : QAS12,
-Nama Laporan : TESTING222</t>
-  </si>
-  <si>
-    <t>Username : Putri,
-Password : bni1234/,
-Kode Laporan : QAS12</t>
+User : - ,
+Jenis Klaim : 1: Pensiun Normal ,
+Nama Peserta : PESERTA 8248,
+No Rek DPLK : - ,
+Format Laporan : PDF</t>
+  </si>
+  <si>
+    <t>Cetakan rekap perhitungan berdasarkan bank tujuan BNI dan dapat di download</t>
   </si>
 </sst>
 </file>
@@ -206,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -233,6 +221,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,18 +549,18 @@
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="12" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="28.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="12" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -586,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>8</v>
@@ -607,40 +598,45 @@
         <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>10</v>
@@ -649,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>13</v>
@@ -658,41 +654,40 @@
         <v>20</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>10</v>
@@ -701,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>13</v>
@@ -710,124 +705,79 @@
         <v>20</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="8"/>
-      <c r="U3" s="4"/>
+      <c r="U3" s="8"/>
       <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
-      </c>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="7"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="4"/>
+      <c r="U4" s="8"/>
       <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="45" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="9"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="7"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-      <c r="U5" s="4"/>
+      <c r="U5" s="8"/>
       <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM002-067 - Klaim - Laporan - Laporan Rekap Harian Pindah Buku (PINBUK) Ke Rekening BNI berdasarkan NPP Penghitung.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKLM002-067 - Klaim - Laporan - Laporan Rekap Harian Pindah Buku (PINBUK) Ke Rekening BNI berdasarkan NPP Penghitung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AABD8C1-63AB-45D7-8C34-EAA99D1D2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18097B9F-2815-4FFA-A729-CABC9AD113DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Excel</t>
   </si>
   <si>
-    <t>PDF</t>
+    <t>Cetakan rekap perhitungan berdasarkan bank tujuan BNI dan dapat di download</t>
   </si>
   <si>
     <t>Username : Putri,
@@ -124,10 +124,7 @@
 Jenis Klaim : 1: Pensiun Normal ,
 Nama Peserta : PESERTA 8248,
 No Rek DPLK : - ,
-Format Laporan : PDF</t>
-  </si>
-  <si>
-    <t>Cetakan rekap perhitungan berdasarkan bank tujuan BNI dan dapat di download</t>
+Format Laporan : Excel</t>
   </si>
 </sst>
 </file>
@@ -532,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
@@ -684,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
@@ -714,7 +711,7 @@
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
